--- a/ResultsByUHF20221019/DailyProjections_citywide20221019.xlsx
+++ b/ResultsByUHF20221019/DailyProjections_citywide20221019.xlsx
@@ -458,57 +458,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>13247 (10820, 16242)</t>
+          <t>18616 (14640, 24788)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2034 (1795, 2317)</t>
+          <t>2236 (1890, 2697)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>101 (67, 142)</t>
+          <t>131 (85, 188)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>87 (54, 127)</t>
+          <t>114 (69, 169)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10 (8, 13)</t>
+          <t>11 (8, 16)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>89 (59, 126)</t>
+          <t>110 (71, 161)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>76 (46, 112)</t>
+          <t>94 (56, 143)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (9, 23)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -535,57 +535,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13098 (10601, 16147)</t>
+          <t>18164 (14156, 24645)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2051 (1802, 2343)</t>
+          <t>2279 (1913, 2780)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>102 (68, 144)</t>
+          <t>134 (87, 193)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>88 (54, 129)</t>
+          <t>116 (70, 173)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>90 (59, 128)</t>
+          <t>112 (72, 163)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>77 (46, 113)</t>
+          <t>96 (57, 145)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -612,57 +612,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12987 (10417, 16082)</t>
+          <t>17829 (13707, 24742)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2063 (1805, 2365)</t>
+          <t>2314 (1929, 2859)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>103 (68, 145)</t>
+          <t>136 (88, 197)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>89 (54, 130)</t>
+          <t>118 (71, 177)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>91 (60, 129)</t>
+          <t>114 (74, 167)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>78 (47, 115)</t>
+          <t>98 (58, 148)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -689,57 +689,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>12883 (10246, 16028)</t>
+          <t>17590 (13325, 24904)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2071 (1803, 2382)</t>
+          <t>2341 (1936, 2928)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>104 (68, 147)</t>
+          <t>137 (89, 201)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>90 (54, 131)</t>
+          <t>119 (71, 180)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>92 (61, 131)</t>
+          <t>116 (75, 170)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>79 (48, 116)</t>
+          <t>99 (59, 151)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>16 (10, 24)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -766,57 +766,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>12805 (10104, 15972)</t>
+          <t>17388 (12969, 25083)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2073 (1796, 2394)</t>
+          <t>2355 (1930, 2985)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>104 (69, 148)</t>
+          <t>138 (89, 204)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>90 (54, 132)</t>
+          <t>120 (71, 182)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 18)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>94 (62, 132)</t>
+          <t>119 (76, 173)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>80 (48, 118)</t>
+          <t>102 (60, 154)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>16 (10, 24)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -843,57 +843,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>12730 (9969, 15931)</t>
+          <t>17215 (12644, 25264)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2071 (1783, 2402)</t>
+          <t>2356 (1911, 3029)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>104 (68, 148)</t>
+          <t>139 (89, 206)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>89 (54, 132)</t>
+          <t>120 (71, 184)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 18)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>95 (62, 134)</t>
+          <t>121 (78, 177)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>81 (49, 119)</t>
+          <t>104 (61, 158)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>17 (10, 25)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -920,57 +920,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>12654 (9837, 15890)</t>
+          <t>17054 (12349, 25418)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2065 (1767, 2406)</t>
+          <t>2345 (1883, 3061)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>104 (68, 149)</t>
+          <t>139 (88, 208)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>89 (53, 132)</t>
+          <t>119 (70, 184)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>19 (12, 28)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>96 (63, 136)</t>
+          <t>123 (79, 180)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>82 (49, 121)</t>
+          <t>105 (62, 161)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -997,57 +997,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12571 (9704, 15825)</t>
+          <t>16873 (12053, 25550)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2057 (1747, 2408)</t>
+          <t>2326 (1847, 3086)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>103 (67, 149)</t>
+          <t>138 (87, 209)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>88 (53, 132)</t>
+          <t>118 (69, 185)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>15 (9, 21)</t>
+          <t>19 (12, 29)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>97 (64, 137)</t>
+          <t>125 (80, 184)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>83 (50, 122)</t>
+          <t>107 (63, 164)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>11 (6, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -1074,57 +1074,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>12478 (9568, 15744)</t>
+          <t>16692 (11760, 25612)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2046 (1725, 2407)</t>
+          <t>2304 (1807, 3107)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>102 (66, 148)</t>
+          <t>137 (86, 210)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>87 (52, 132)</t>
+          <t>117 (68, 185)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>98 (64, 139)</t>
+          <t>127 (81, 187)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>84 (50, 123)</t>
+          <t>109 (64, 166)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1151,57 +1151,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>12396 (9442, 15676)</t>
+          <t>16504 (11485, 25663)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2035 (1702, 2405)</t>
+          <t>2278 (1765, 3126)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>102 (66, 148)</t>
+          <t>136 (85, 210)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>86 (51, 131)</t>
+          <t>115 (66, 185)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10 (8, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>99 (65, 140)</t>
+          <t>128 (82, 190)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>84 (51, 125)</t>
+          <t>110 (65, 169)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -1228,57 +1228,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12308 (9320, 15598)</t>
+          <t>16330 (11220, 25699)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022 (1680, 2401)</t>
+          <t>2252 (1724, 3142)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>101 (65, 148)</t>
+          <t>134 (83, 211)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>85 (50, 130)</t>
+          <t>114 (65, 185)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>20 (12, 30)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>16 (9, 24)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11 (8, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>99 (65, 141)</t>
+          <t>130 (83, 193)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>85 (51, 126)</t>
+          <t>111 (65, 171)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
     </row>
@@ -1305,57 +1305,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12221 (9204, 15515)</t>
+          <t>16143 (10960, 25715)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2010 (1657, 2396)</t>
+          <t>2225 (1683, 3155)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>100 (64, 147)</t>
+          <t>133 (82, 211)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>84 (49, 130)</t>
+          <t>112 (63, 184)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>11 (8, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>100 (65, 142)</t>
+          <t>131 (83, 195)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>85 (51, 127)</t>
+          <t>112 (65, 173)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -1382,57 +1382,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12138 (9084, 15434)</t>
+          <t>15955 (10713, 25696)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1996 (1634, 2391)</t>
+          <t>2197 (1642, 3164)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>99 (63, 146)</t>
+          <t>131 (80, 210)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>83 (48, 129)</t>
+          <t>110 (62, 184)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
+          <t>20 (12, 31)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>16 (9, 25)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>12 (8, 20)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>132 (84, 198)</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>113 (65, 175)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>19 (11, 28)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>15 (9, 22)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>12 (7, 18)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>11 (8, 15)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>100 (66, 143)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>85 (51, 127)</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>14 (9, 21)</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>11 (7, 17)</t>
         </is>
       </c>
     </row>
@@ -1459,57 +1459,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>12054 (8970, 15348)</t>
+          <t>15758 (10464, 25627)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1983 (1612, 2384)</t>
+          <t>2170 (1602, 3172)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>98 (62, 145)</t>
+          <t>130 (79, 210)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>82 (47, 128)</t>
+          <t>109 (60, 183)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>15 (9, 22)</t>
+          <t>20 (12, 31)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12 (7, 17)</t>
+          <t>16 (9, 25)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>11 (8, 15)</t>
+          <t>12 (8, 20)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>100 (65, 144)</t>
+          <t>132 (84, 200)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>85 (51, 128)</t>
+          <t>113 (65, 176)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
     </row>
@@ -1536,57 +1536,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>12416 (10257, 15164)</t>
+          <t>17356 (13676, 23175)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1992 (1765, 2262)</t>
+          <t>2168 (1840, 2606)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>99 (66, 137)</t>
+          <t>125 (82, 178)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>86 (52, 122)</t>
+          <t>108 (65, 159)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>16 (10, 24)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>10 (7, 13)</t>
+          <t>10 (8, 16)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>88 (58, 122)</t>
+          <t>107 (69, 154)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>74 (45, 108)</t>
+          <t>91 (54, 137)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>13 (8, 18)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1613,57 +1613,57 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>12251 (10041, 15026)</t>
+          <t>16978 (13253, 23075)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2000 (1767, 2278)</t>
+          <t>2200 (1854, 2672)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>100 (66, 138)</t>
+          <t>127 (83, 182)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>86 (53, 124)</t>
+          <t>110 (66, 163)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
+          <t>17 (10, 24)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
-        </is>
-      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>10 (8, 13)</t>
+          <t>11 (8, 16)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>88 (58, 124)</t>
+          <t>108 (70, 157)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>75 (46, 110)</t>
+          <t>92 (55, 139)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>13 (8, 18)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1690,57 +1690,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>12103 (9840, 14918)</t>
+          <t>16680 (12859, 23160)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2004 (1764, 2291)</t>
+          <t>2224 (1859, 2733)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>100 (67, 139)</t>
+          <t>129 (84, 185)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>87 (53, 125)</t>
+          <t>111 (67, 166)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>14 (8, 19)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>11 (7, 15)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10 (8, 13)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>89 (59, 125)</t>
+          <t>110 (71, 159)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>76 (46, 111)</t>
+          <t>94 (56, 142)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1767,57 +1767,57 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11974 (9655, 14819)</t>
+          <t>16450 (12503, 23317)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2004 (1755, 2299)</t>
+          <t>2237 (1854, 2786)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>101 (67, 140)</t>
+          <t>130 (84, 188)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>87 (53, 125)</t>
+          <t>112 (67, 168)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
+          <t>17 (11, 25)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
           <t>14 (8, 20)</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>11 (7, 16)</t>
-        </is>
-      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>90 (60, 126)</t>
+          <t>112 (73, 162)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>77 (47, 112)</t>
+          <t>95 (57, 144)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (7, 18)</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1844,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11848 (9482, 14733)</t>
+          <t>16264 (12181, 23503)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1998 (1741, 2303)</t>
+          <t>2238 (1838, 2829)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>101 (67, 141)</t>
+          <t>130 (84, 190)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>87 (53, 126)</t>
+          <t>112 (67, 169)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>91 (61, 128)</t>
+          <t>114 (74, 165)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>78 (47, 113)</t>
+          <t>97 (58, 147)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>13 (8, 19)</t>
+          <t>16 (10, 23)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>10 (6, 15)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
     </row>
@@ -1921,57 +1921,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11727 (9315, 14630)</t>
+          <t>16096 (11874, 23678)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1987 (1722, 2302)</t>
+          <t>2229 (1812, 2863)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>100 (66, 141)</t>
+          <t>130 (84, 192)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>86 (52, 126)</t>
+          <t>112 (66, 170)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 21)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 17)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>92 (61, 129)</t>
+          <t>116 (75, 168)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>79 (48, 115)</t>
+          <t>99 (59, 150)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>16 (10, 24)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -1998,57 +1998,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11611 (9155, 14539)</t>
+          <t>15932 (11601, 23838)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1973 (1700, 2297)</t>
+          <t>2213 (1779, 2891)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>100 (66, 141)</t>
+          <t>130 (83, 193)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>85 (51, 125)</t>
+          <t>111 (65, 171)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 18)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>93 (62, 131)</t>
+          <t>118 (76, 171)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>80 (49, 116)</t>
+          <t>100 (60, 152)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>16 (10, 24)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -2075,57 +2075,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11501 (9005, 14439)</t>
+          <t>15779 (11319, 23967)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1957 (1674, 2290)</t>
+          <t>2193 (1742, 2914)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>99 (65, 141)</t>
+          <t>129 (82, 193)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>84 (51, 125)</t>
+          <t>110 (64, 171)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 27)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>11 (8, 18)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>94 (63, 132)</t>
+          <t>119 (77, 174)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>81 (49, 117)</t>
+          <t>102 (60, 155)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>17 (10, 25)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>13 (8, 19)</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>10 (6, 15)</t>
         </is>
       </c>
     </row>
@@ -2152,57 +2152,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11389 (8863, 14338)</t>
+          <t>15622 (11056, 24108)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1940 (1648, 2281)</t>
+          <t>2169 (1703, 2936)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>98 (64, 140)</t>
+          <t>127 (80, 193)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>83 (50, 124)</t>
+          <t>108 (63, 170)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 22)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>95 (63, 133)</t>
+          <t>121 (78, 176)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>82 (49, 119)</t>
+          <t>103 (61, 157)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14 (8, 19)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>11 (6, 15)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -2229,57 +2229,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11275 (8715, 14243)</t>
+          <t>15465 (10801, 24210)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1922 (1621, 2272)</t>
+          <t>2145 (1664, 2957)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>96 (63, 139)</t>
+          <t>126 (79, 194)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>82 (49, 123)</t>
+          <t>106 (61, 170)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>96 (63, 134)</t>
+          <t>122 (79, 179)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>82 (50, 119)</t>
+          <t>104 (62, 159)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>17 (10, 25)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>13 (8, 20)</t>
         </is>
       </c>
     </row>
@@ -2306,57 +2306,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11171 (8583, 14146)</t>
+          <t>15310 (10556, 24305)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1904 (1594, 2261)</t>
+          <t>2120 (1624, 2975)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>95 (62, 138)</t>
+          <t>124 (78, 194)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>80 (47, 122)</t>
+          <t>105 (60, 170)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 28)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 18)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>96 (64, 135)</t>
+          <t>123 (79, 181)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>82 (50, 120)</t>
+          <t>105 (62, 161)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>17 (11, 26)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2383,57 +2383,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11057 (8452, 14034)</t>
+          <t>15143 (10320, 24364)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1886 (1569, 2251)</t>
+          <t>2096 (1586, 2993)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>94 (60, 137)</t>
+          <t>123 (76, 194)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>79 (46, 121)</t>
+          <t>103 (58, 169)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>97 (64, 136)</t>
+          <t>124 (79, 183)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>83 (50, 121)</t>
+          <t>106 (62, 162)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>14 (8, 20)</t>
+          <t>18 (11, 26)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (8, 21)</t>
         </is>
       </c>
     </row>
@@ -2460,57 +2460,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10952 (8322, 13934)</t>
+          <t>14981 (10079, 24424)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1868 (1543, 2240)</t>
+          <t>2071 (1548, 3008)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>93 (59, 136)</t>
+          <t>121 (74, 193)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>78 (45, 120)</t>
+          <t>101 (57, 169)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>19 (11, 29)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>15 (9, 23)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>12 (8, 19)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>124 (79, 185)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>106 (62, 164)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>18 (11, 26)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>14 (9, 21)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>11 (7, 17)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>10 (8, 14)</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>97 (64, 137)</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>83 (50, 121)</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>14 (8, 20)</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>11 (7, 16)</t>
         </is>
       </c>
     </row>
@@ -2537,57 +2537,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10846 (8199, 13830)</t>
+          <t>14809 (9854, 24436)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1851 (1519, 2229)</t>
+          <t>2046 (1512, 3023)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>91 (58, 135)</t>
+          <t>119 (73, 193)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>77 (44, 119)</t>
+          <t>100 (56, 168)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>14 (9, 21)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>15 (9, 23)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10 (8, 14)</t>
+          <t>12 (8, 19)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>97 (63, 137)</t>
+          <t>125 (79, 186)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>82 (49, 122)</t>
+          <t>106 (62, 165)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>14 (9, 20)</t>
+          <t>18 (11, 27)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>11 (7, 16)</t>
+          <t>14 (9, 22)</t>
         </is>
       </c>
     </row>
@@ -2689,42 +2689,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>650 (354, 1133)</t>
+          <t>827 (449, 1445)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>558 (266, 1035)</t>
+          <t>719 (343, 1324)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>65 (29, 133)</t>
+          <t>80 (35, 164)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>63 (36, 106)</t>
+          <t>77 (43, 131)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>650 (354, 1133)</t>
+          <t>827 (449, 1445)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>558 (266, 1035)</t>
+          <t>719 (343, 1324)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>65 (29, 133)</t>
+          <t>80 (35, 164)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>63 (36, 106)</t>
+          <t>77 (43, 131)</t>
         </is>
       </c>
     </row>
@@ -2751,42 +2751,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>661 (361, 1151)</t>
+          <t>849 (460, 1479)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>569 (272, 1052)</t>
+          <t>738 (353, 1356)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>66 (29, 134)</t>
+          <t>81 (36, 166)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>64 (36, 106)</t>
+          <t>79 (44, 132)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>661 (361, 1151)</t>
+          <t>849 (460, 1479)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>569 (272, 1052)</t>
+          <t>738 (353, 1356)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>66 (29, 134)</t>
+          <t>81 (36, 166)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>64 (36, 106)</t>
+          <t>79 (44, 132)</t>
         </is>
       </c>
     </row>
@@ -2813,42 +2813,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>673 (367, 1170)</t>
+          <t>870 (471, 1515)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>580 (278, 1071)</t>
+          <t>757 (362, 1390)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>67 (30, 135)</t>
+          <t>83 (36, 169)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>64 (37, 107)</t>
+          <t>80 (45, 135)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>673 (367, 1170)</t>
+          <t>870 (471, 1515)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>580 (278, 1071)</t>
+          <t>757 (362, 1390)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>67 (30, 135)</t>
+          <t>83 (36, 169)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>64 (37, 107)</t>
+          <t>80 (45, 135)</t>
         </is>
       </c>
     </row>
@@ -2875,42 +2875,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>684 (372, 1189)</t>
+          <t>890 (480, 1551)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>589 (282, 1089)</t>
+          <t>775 (369, 1424)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>68 (30, 136)</t>
+          <t>84 (37, 171)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>65 (37, 108)</t>
+          <t>81 (46, 137)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>684 (372, 1189)</t>
+          <t>890 (480, 1551)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>589 (282, 1089)</t>
+          <t>775 (369, 1424)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>68 (30, 136)</t>
+          <t>84 (37, 171)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>65 (37, 108)</t>
+          <t>81 (46, 137)</t>
         </is>
       </c>
     </row>
@@ -2937,42 +2937,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>693 (376, 1208)</t>
+          <t>908 (487, 1587)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>598 (286, 1106)</t>
+          <t>790 (375, 1457)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>68 (30, 137)</t>
+          <t>86 (38, 175)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>66 (38, 110)</t>
+          <t>83 (47, 140)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>693 (376, 1208)</t>
+          <t>908 (487, 1587)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>598 (286, 1106)</t>
+          <t>790 (375, 1457)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>68 (30, 137)</t>
+          <t>86 (38, 175)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>66 (38, 110)</t>
+          <t>83 (47, 140)</t>
         </is>
       </c>
     </row>
@@ -2999,42 +2999,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>701 (379, 1225)</t>
+          <t>922 (493, 1621)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>605 (288, 1121)</t>
+          <t>803 (378, 1488)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69 (31, 139)</t>
+          <t>88 (39, 179)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>67 (38, 111)</t>
+          <t>85 (47, 143)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>701 (379, 1225)</t>
+          <t>922 (493, 1621)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>605 (288, 1121)</t>
+          <t>803 (378, 1488)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>69 (31, 139)</t>
+          <t>88 (39, 179)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>67 (38, 111)</t>
+          <t>85 (47, 143)</t>
         </is>
       </c>
     </row>
@@ -3061,42 +3061,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>708 (381, 1240)</t>
+          <t>935 (496, 1652)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>610 (289, 1136)</t>
+          <t>813 (380, 1516)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>70 (31, 140)</t>
+          <t>90 (40, 182)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>68 (39, 113)</t>
+          <t>87 (48, 146)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>708 (381, 1240)</t>
+          <t>935 (496, 1652)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>610 (289, 1136)</t>
+          <t>813 (380, 1516)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>70 (31, 140)</t>
+          <t>90 (40, 182)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>68 (39, 113)</t>
+          <t>87 (48, 146)</t>
         </is>
       </c>
     </row>
@@ -3123,42 +3123,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>712 (382, 1254)</t>
+          <t>944 (498, 1681)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>614 (289, 1148)</t>
+          <t>820 (380, 1542)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>71 (32, 142)</t>
+          <t>92 (40, 186)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>69 (39, 114)</t>
+          <t>88 (49, 149)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>712 (382, 1254)</t>
+          <t>944 (498, 1681)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>614 (289, 1148)</t>
+          <t>820 (380, 1542)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>71 (32, 142)</t>
+          <t>92 (40, 186)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>69 (39, 114)</t>
+          <t>88 (49, 149)</t>
         </is>
       </c>
     </row>
@@ -3185,42 +3185,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>714 (381, 1265)</t>
+          <t>951 (498, 1706)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>615 (288, 1157)</t>
+          <t>824 (378, 1563)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>72 (32, 144)</t>
+          <t>94 (41, 191)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>70 (40, 116)</t>
+          <t>90 (50, 152)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>714 (381, 1265)</t>
+          <t>951 (498, 1706)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>615 (288, 1157)</t>
+          <t>824 (378, 1563)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>72 (32, 144)</t>
+          <t>94 (41, 191)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>70 (40, 116)</t>
+          <t>90 (50, 152)</t>
         </is>
       </c>
     </row>
@@ -3247,42 +3247,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>716 (380, 1273)</t>
+          <t>955 (496, 1727)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>615 (286, 1164)</t>
+          <t>826 (375, 1580)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>73 (32, 146)</t>
+          <t>95 (41, 195)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>70 (40, 117)</t>
+          <t>91 (51, 155)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>716 (380, 1273)</t>
+          <t>955 (496, 1727)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>615 (286, 1164)</t>
+          <t>826 (375, 1580)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>73 (32, 146)</t>
+          <t>95 (41, 195)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>70 (40, 117)</t>
+          <t>91 (51, 155)</t>
         </is>
       </c>
     </row>
@@ -3309,42 +3309,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>715 (378, 1279)</t>
+          <t>956 (492, 1745)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>614 (283, 1169)</t>
+          <t>826 (371, 1595)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>73 (32, 147)</t>
+          <t>97 (42, 199)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>71 (40, 119)</t>
+          <t>93 (51, 158)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>715 (378, 1279)</t>
+          <t>956 (492, 1745)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>614 (283, 1169)</t>
+          <t>826 (371, 1595)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>73 (32, 147)</t>
+          <t>97 (42, 199)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>71 (40, 119)</t>
+          <t>93 (51, 158)</t>
         </is>
       </c>
     </row>
@@ -3371,42 +3371,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>713 (375, 1283)</t>
+          <t>955 (488, 1758)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>611 (280, 1171)</t>
+          <t>823 (365, 1606)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>74 (32, 149)</t>
+          <t>98 (42, 202)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>72 (40, 120)</t>
+          <t>94 (52, 161)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>713 (375, 1283)</t>
+          <t>955 (488, 1758)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>611 (280, 1171)</t>
+          <t>823 (365, 1606)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>74 (32, 149)</t>
+          <t>98 (42, 202)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>72 (40, 120)</t>
+          <t>94 (52, 161)</t>
         </is>
       </c>
     </row>
@@ -3433,42 +3433,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>710 (371, 1286)</t>
+          <t>952 (482, 1769)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>607 (276, 1172)</t>
+          <t>818 (359, 1613)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>74 (32, 150)</t>
+          <t>99 (42, 205)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>72 (41, 121)</t>
+          <t>94 (52, 164)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>710 (371, 1286)</t>
+          <t>952 (482, 1769)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>607 (276, 1172)</t>
+          <t>818 (359, 1613)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>74 (32, 150)</t>
+          <t>99 (42, 205)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>72 (41, 121)</t>
+          <t>94 (52, 164)</t>
         </is>
       </c>
     </row>
@@ -3495,42 +3495,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>706 (367, 1285)</t>
+          <t>947 (475, 1777)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>602 (272, 1171)</t>
+          <t>811 (352, 1617)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>74 (32, 151)</t>
+          <t>99 (42, 208)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>72 (41, 122)</t>
+          <t>95 (52, 166)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>706 (367, 1285)</t>
+          <t>947 (475, 1777)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>602 (272, 1171)</t>
+          <t>811 (352, 1617)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>74 (32, 151)</t>
+          <t>99 (42, 208)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>72 (41, 122)</t>
+          <t>95 (52, 166)</t>
         </is>
       </c>
     </row>
@@ -3557,42 +3557,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>634 (348, 1098)</t>
+          <t>785 (429, 1378)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>548 (264, 1005)</t>
+          <t>679 (326, 1259)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>63 (28, 129)</t>
+          <t>78 (35, 160)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>61 (34, 102)</t>
+          <t>76 (42, 128)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>634 (348, 1098)</t>
+          <t>785 (429, 1378)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>548 (264, 1005)</t>
+          <t>679 (326, 1259)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>63 (28, 129)</t>
+          <t>78 (35, 160)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>61 (34, 102)</t>
+          <t>76 (42, 128)</t>
         </is>
       </c>
     </row>
@@ -3619,42 +3619,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>646 (355, 1114)</t>
+          <t>803 (438, 1406)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>559 (270, 1021)</t>
+          <t>696 (335, 1287)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>63 (28, 130)</t>
+          <t>79 (35, 162)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>62 (35, 103)</t>
+          <t>77 (42, 129)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>646 (355, 1114)</t>
+          <t>803 (438, 1406)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>559 (270, 1021)</t>
+          <t>696 (335, 1287)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>63 (28, 130)</t>
+          <t>79 (35, 162)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>62 (35, 103)</t>
+          <t>77 (42, 129)</t>
         </is>
       </c>
     </row>
@@ -3681,42 +3681,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>657 (361, 1132)</t>
+          <t>820 (447, 1437)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>569 (275, 1038)</t>
+          <t>712 (343, 1315)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>64 (29, 131)</t>
+          <t>80 (36, 163)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>62 (35, 104)</t>
+          <t>78 (43, 131)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>657 (361, 1132)</t>
+          <t>820 (447, 1437)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>569 (275, 1038)</t>
+          <t>712 (343, 1315)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>64 (29, 131)</t>
+          <t>80 (36, 163)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>62 (35, 104)</t>
+          <t>78 (43, 131)</t>
         </is>
       </c>
     </row>
@@ -3743,42 +3743,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>666 (366, 1148)</t>
+          <t>837 (455, 1468)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>578 (279, 1054)</t>
+          <t>726 (349, 1345)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>65 (29, 132)</t>
+          <t>82 (37, 166)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>63 (36, 105)</t>
+          <t>79 (44, 133)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>666 (366, 1148)</t>
+          <t>837 (455, 1468)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>578 (279, 1054)</t>
+          <t>726 (349, 1345)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>65 (29, 132)</t>
+          <t>82 (37, 166)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>63 (36, 105)</t>
+          <t>79 (44, 133)</t>
         </is>
       </c>
     </row>
@@ -3805,42 +3805,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>675 (369, 1164)</t>
+          <t>852 (461, 1498)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>586 (282, 1069)</t>
+          <t>739 (353, 1373)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>66 (30, 133)</t>
+          <t>83 (37, 168)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>64 (36, 106)</t>
+          <t>80 (44, 135)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>675 (369, 1164)</t>
+          <t>852 (461, 1498)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>586 (282, 1069)</t>
+          <t>739 (353, 1373)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>66 (30, 133)</t>
+          <t>83 (37, 168)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>64 (36, 106)</t>
+          <t>80 (44, 135)</t>
         </is>
       </c>
     </row>
@@ -3867,42 +3867,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>681 (371, 1179)</t>
+          <t>864 (464, 1528)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>591 (283, 1083)</t>
+          <t>749 (355, 1399)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>67 (30, 135)</t>
+          <t>85 (38, 171)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>65 (37, 107)</t>
+          <t>82 (45, 138)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>681 (371, 1179)</t>
+          <t>864 (464, 1528)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>591 (283, 1083)</t>
+          <t>749 (355, 1399)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>67 (30, 135)</t>
+          <t>85 (38, 171)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>65 (37, 107)</t>
+          <t>82 (45, 138)</t>
         </is>
       </c>
     </row>
@@ -3929,42 +3929,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>686 (372, 1191)</t>
+          <t>873 (466, 1554)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>595 (283, 1095)</t>
+          <t>756 (356, 1424)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>67 (31, 136)</t>
+          <t>86 (39, 174)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>66 (37, 109)</t>
+          <t>83 (46, 140)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>686 (372, 1191)</t>
+          <t>873 (466, 1554)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>595 (283, 1095)</t>
+          <t>756 (356, 1424)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>67 (31, 136)</t>
+          <t>86 (39, 174)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>66 (37, 109)</t>
+          <t>83 (46, 140)</t>
         </is>
       </c>
     </row>
@@ -3991,42 +3991,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>689 (371, 1202)</t>
+          <t>879 (466, 1578)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>597 (282, 1104)</t>
+          <t>760 (355, 1445)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>68 (31, 138)</t>
+          <t>88 (39, 178)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>66 (38, 110)</t>
+          <t>85 (46, 143)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>689 (371, 1202)</t>
+          <t>879 (466, 1578)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>597 (282, 1104)</t>
+          <t>760 (355, 1445)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>68 (31, 138)</t>
+          <t>88 (39, 178)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>66 (38, 110)</t>
+          <t>85 (46, 143)</t>
         </is>
       </c>
     </row>
@@ -4053,42 +4053,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>690 (370, 1209)</t>
+          <t>882 (465, 1598)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>596 (280, 1111)</t>
+          <t>762 (352, 1464)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>69 (31, 139)</t>
+          <t>89 (40, 181)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>67 (38, 111)</t>
+          <t>86 (47, 146)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>690 (370, 1209)</t>
+          <t>882 (465, 1598)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>596 (280, 1111)</t>
+          <t>762 (352, 1464)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>69 (31, 139)</t>
+          <t>89 (40, 181)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>67 (38, 111)</t>
+          <t>86 (47, 146)</t>
         </is>
       </c>
     </row>
@@ -4115,42 +4115,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>689 (367, 1214)</t>
+          <t>884 (462, 1614)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>595 (277, 1115)</t>
+          <t>761 (348, 1478)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>69 (31, 141)</t>
+          <t>91 (40, 185)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>68 (38, 113)</t>
+          <t>87 (48, 149)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>689 (367, 1214)</t>
+          <t>884 (462, 1614)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>595 (277, 1115)</t>
+          <t>761 (348, 1478)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>69 (31, 141)</t>
+          <t>91 (40, 185)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>68 (38, 113)</t>
+          <t>87 (48, 149)</t>
         </is>
       </c>
     </row>
@@ -4177,42 +4177,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>686 (363, 1217)</t>
+          <t>882 (457, 1628)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>591 (273, 1117)</t>
+          <t>758 (343, 1488)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>70 (31, 142)</t>
+          <t>92 (40, 188)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>68 (39, 114)</t>
+          <t>88 (48, 151)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>686 (363, 1217)</t>
+          <t>882 (457, 1628)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>591 (273, 1117)</t>
+          <t>758 (343, 1488)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>70 (31, 142)</t>
+          <t>92 (40, 188)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>68 (39, 114)</t>
+          <t>88 (48, 151)</t>
         </is>
       </c>
     </row>
@@ -4239,42 +4239,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>682 (359, 1218)</t>
+          <t>879 (452, 1638)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>587 (268, 1116)</t>
+          <t>753 (337, 1496)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>70 (32, 143)</t>
+          <t>93 (40, 191)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>89 (48, 153)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>682 (359, 1218)</t>
+          <t>879 (452, 1638)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>587 (268, 1116)</t>
+          <t>753 (337, 1496)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>70 (32, 143)</t>
+          <t>93 (40, 191)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>89 (48, 153)</t>
         </is>
       </c>
     </row>
@@ -4301,42 +4301,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>677 (354, 1216)</t>
+          <t>874 (445, 1645)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>581 (263, 1113)</t>
+          <t>747 (331, 1500)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>70 (31, 144)</t>
+          <t>93 (40, 193)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>90 (48, 155)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>677 (354, 1216)</t>
+          <t>874 (445, 1645)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>581 (263, 1113)</t>
+          <t>747 (331, 1500)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>70 (31, 144)</t>
+          <t>93 (40, 193)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>69 (39, 115)</t>
+          <t>90 (48, 155)</t>
         </is>
       </c>
     </row>
@@ -4363,42 +4363,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>671 (349, 1212)</t>
+          <t>867 (438, 1649)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>575 (258, 1109)</t>
+          <t>740 (324, 1501)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>70 (31, 145)</t>
+          <t>94 (40, 196)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>69 (39, 116)</t>
+          <t>90 (48, 157)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>671 (349, 1212)</t>
+          <t>867 (438, 1649)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>575 (258, 1109)</t>
+          <t>740 (324, 1501)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>70 (31, 145)</t>
+          <t>94 (40, 196)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>69 (39, 116)</t>
+          <t>90 (48, 157)</t>
         </is>
       </c>
     </row>
